--- a/shadowrun/checklist.xlsx
+++ b/shadowrun/checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10713"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/shadowrun/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FED154D6-361D-6546-B3A0-3FF9D1869369}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D1F55F-1737-0C49-849E-DBD4281BD4DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="460" windowWidth="26740" windowHeight="15780" xr2:uid="{F23671B2-3995-1149-A37E-3115B4F9CB61}"/>
   </bookViews>
@@ -140,10 +140,10 @@
     <t>Evil Magic: Shadowrun Replay Collection 4</t>
   </si>
   <si>
-    <t>失墜の魔術師―シャドウランリプレイ集〈1</t>
-  </si>
-  <si>
     <t>Fallen Magician: Shadowrun Replay Collection 1</t>
+  </si>
+  <si>
+    <t>失墜の魔術師―シャドウランリプレイ集〈1〉</t>
   </si>
 </sst>
 </file>
@@ -508,7 +508,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -608,10 +608,10 @@
         <v>1994</v>
       </c>
       <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
         <v>35</v>
-      </c>
-      <c r="C5" t="s">
-        <v>36</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>

--- a/shadowrun/checklist.xlsx
+++ b/shadowrun/checklist.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10810"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/shadowrun/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17D1F55F-1737-0C49-849E-DBD4281BD4DC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E339DA9-C733-764A-B57E-12508E75AEDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="60" yWindow="460" windowWidth="26740" windowHeight="15780" xr2:uid="{F23671B2-3995-1149-A37E-3115B4F9CB61}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
   <si>
     <t>year</t>
   </si>
@@ -110,18 +110,9 @@
     <t>replay</t>
   </si>
   <si>
-    <t>12-1</t>
-  </si>
-  <si>
-    <t>12-2</t>
-  </si>
-  <si>
     <t>12-3</t>
   </si>
   <si>
-    <t>12-4</t>
-  </si>
-  <si>
     <t>影への助走―シャドウランリプレイ集〈3〉</t>
   </si>
   <si>
@@ -144,6 +135,15 @@
   </si>
   <si>
     <t>失墜の魔術師―シャドウランリプレイ集〈1〉</t>
+  </si>
+  <si>
+    <t>TOKYO EYE‐SHOT シャドウランシティファイル</t>
+  </si>
+  <si>
+    <t>Tokyo Eye Shot: Shadowrun City File</t>
+  </si>
+  <si>
+    <t>shadowrun_tokyo_eye_shot.jpg</t>
   </si>
 </sst>
 </file>
@@ -505,10 +505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70CEB834-26A5-C348-B78D-2BD0AEBD14B9}">
-  <dimension ref="A1:G8"/>
+  <dimension ref="A1:G9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="G8" sqref="G8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -608,10 +608,10 @@
         <v>1994</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
       <c r="C5" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -622,19 +622,17 @@
       <c r="F5" t="s">
         <v>24</v>
       </c>
-      <c r="G5" s="2" t="s">
-        <v>25</v>
-      </c>
+      <c r="G5" s="2"/>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>1995</v>
       </c>
       <c r="B6" t="s">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="C6" t="s">
-        <v>31</v>
+        <v>28</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
@@ -645,19 +643,17 @@
       <c r="F6" t="s">
         <v>24</v>
       </c>
-      <c r="G6" s="2" t="s">
-        <v>26</v>
-      </c>
+      <c r="G6" s="2"/>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1996</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>26</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
@@ -668,19 +664,17 @@
       <c r="F7" t="s">
         <v>24</v>
       </c>
-      <c r="G7" s="2" t="s">
-        <v>27</v>
-      </c>
+      <c r="G7" s="2"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>1997</v>
       </c>
       <c r="B8" t="s">
-        <v>33</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
@@ -691,8 +685,29 @@
       <c r="F8" t="s">
         <v>24</v>
       </c>
-      <c r="G8" s="2" t="s">
-        <v>28</v>
+      <c r="G8" s="2"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>1995</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9" t="s">
+        <v>35</v>
+      </c>
+      <c r="D9" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" t="s">
+        <v>14</v>
+      </c>
+      <c r="G9" s="2" t="s">
+        <v>25</v>
       </c>
     </row>
   </sheetData>

--- a/shadowrun/checklist.xlsx
+++ b/shadowrun/checklist.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11108"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10520"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Local/src/weatherspud/japanese-collectors-list/shadowrun/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Source/japanese-collectors-list/shadowrun/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E339DA9-C733-764A-B57E-12508E75AEDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99111396-9288-764B-88EC-5455B7A584B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="60" yWindow="460" windowWidth="26740" windowHeight="15780" xr2:uid="{F23671B2-3995-1149-A37E-3115B4F9CB61}"/>
+    <workbookView xWindow="0" yWindow="600" windowWidth="25480" windowHeight="15780" xr2:uid="{F23671B2-3995-1149-A37E-3115B4F9CB61}"/>
   </bookViews>
   <sheets>
     <sheet name="checklist" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="83">
   <si>
     <t>year</t>
   </si>
@@ -144,6 +144,144 @@
   </si>
   <si>
     <t>shadowrun_tokyo_eye_shot.jpg</t>
+  </si>
+  <si>
+    <t>4th_edition.jpg</t>
+  </si>
+  <si>
+    <t>シャドウラン 4th Edition</t>
+  </si>
+  <si>
+    <t>Shadowrun 4th Edition</t>
+  </si>
+  <si>
+    <t>Shinkigensha</t>
+  </si>
+  <si>
+    <t>street_magic.jpg</t>
+  </si>
+  <si>
+    <t>ストリート・マジック</t>
+  </si>
+  <si>
+    <t>Street Magic</t>
+  </si>
+  <si>
+    <t>オーグメンテーション</t>
+  </si>
+  <si>
+    <t>augmentation.jpg</t>
+  </si>
+  <si>
+    <t>Augmentation</t>
+  </si>
+  <si>
+    <t>20th_anniversary.jpg</t>
+  </si>
+  <si>
+    <t>シャドウラン 20th Anniversary Edition</t>
+  </si>
+  <si>
+    <t>Shadowrun 20th Anniversary Edition</t>
+  </si>
+  <si>
+    <t>アーセナル</t>
+  </si>
+  <si>
+    <t>Arsenal</t>
+  </si>
+  <si>
+    <t>arsenal.jpg</t>
+  </si>
+  <si>
+    <t>ンワイアード</t>
+  </si>
+  <si>
+    <t>unwired.jpg</t>
+  </si>
+  <si>
+    <t>Unwired</t>
+  </si>
+  <si>
+    <t>runners_companion.jpg</t>
+  </si>
+  <si>
+    <t>ランナーズ・コンパニオン</t>
+  </si>
+  <si>
+    <t>Runner's Companion</t>
+  </si>
+  <si>
+    <t>5th_edition.jpg</t>
+  </si>
+  <si>
+    <t>シャドウラン 5th Edition</t>
+  </si>
+  <si>
+    <t>Shadowrun 5th Edition</t>
+  </si>
+  <si>
+    <t>スプロール・ワイルド</t>
+  </si>
+  <si>
+    <t>Sprawl Wilds</t>
+  </si>
+  <si>
+    <t>sprawl_wilds.jpg</t>
+  </si>
+  <si>
+    <t>street_angels.jpg</t>
+  </si>
+  <si>
+    <t>ストリートの天使たち</t>
+  </si>
+  <si>
+    <t>Street Angels</t>
+  </si>
+  <si>
+    <t>ビギナーズ・バッドラック</t>
+  </si>
+  <si>
+    <t>Beginner's Bad Luck</t>
+  </si>
+  <si>
+    <t>beginners_bad_luck.jpg</t>
+  </si>
+  <si>
+    <t>ストリートの天使たち　改訂版</t>
+  </si>
+  <si>
+    <t>Street Angels Revised Edition</t>
+  </si>
+  <si>
+    <t>street_angels_revised.jpg</t>
+  </si>
+  <si>
+    <t>旅する天使たち</t>
+  </si>
+  <si>
+    <t>Traveling Angels</t>
+  </si>
+  <si>
+    <t>traveling_angels.jpg</t>
+  </si>
+  <si>
+    <t>九龍の天使たち</t>
+  </si>
+  <si>
+    <t>Kowloon Angels</t>
+  </si>
+  <si>
+    <t>kowloon_angels.jpg</t>
+  </si>
+  <si>
+    <t>帝都の天使たち</t>
+  </si>
+  <si>
+    <t>Angels of the Imperial City</t>
+  </si>
+  <si>
+    <t>imperial_city.jpg</t>
   </si>
 </sst>
 </file>
@@ -505,10 +643,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70CEB834-26A5-C348-B78D-2BD0AEBD14B9}">
-  <dimension ref="A1:G9"/>
+  <dimension ref="A1:G24"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G8" sqref="G8"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C15" sqref="A1:G24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -565,122 +703,124 @@
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>1996</v>
+        <v>1994</v>
       </c>
       <c r="B3" t="s">
-        <v>12</v>
+        <v>33</v>
       </c>
       <c r="C3" t="s">
-        <v>16</v>
+        <v>32</v>
       </c>
       <c r="D3" t="s">
         <v>9</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G3" s="2"/>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>1996</v>
+        <v>1995</v>
       </c>
       <c r="B4" t="s">
-        <v>15</v>
+        <v>29</v>
       </c>
       <c r="C4" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="D4" t="s">
         <v>9</v>
       </c>
       <c r="E4" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="F4" t="s">
-        <v>19</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="G4" s="2"/>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>1994</v>
+        <v>1995</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F5" t="s">
-        <v>24</v>
-      </c>
-      <c r="G5" s="2"/>
+        <v>14</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>25</v>
+      </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>1995</v>
+        <v>1996</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>12</v>
       </c>
       <c r="C6" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
         <v>9</v>
       </c>
       <c r="E6" t="s">
-        <v>21</v>
+        <v>13</v>
       </c>
       <c r="F6" t="s">
-        <v>24</v>
-      </c>
-      <c r="G6" s="2"/>
+        <v>14</v>
+      </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>1996</v>
       </c>
       <c r="B7" t="s">
-        <v>26</v>
+        <v>15</v>
       </c>
       <c r="C7" t="s">
-        <v>27</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
         <v>9</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
       <c r="F7" t="s">
-        <v>24</v>
-      </c>
-      <c r="G7" s="2"/>
+        <v>19</v>
+      </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>1997</v>
+        <v>1996</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="D8" t="s">
         <v>9</v>
       </c>
       <c r="E8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F8" t="s">
         <v>24</v>
@@ -689,28 +829,329 @@
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>1995</v>
+        <v>1997</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C9" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="D9" t="s">
         <v>9</v>
       </c>
       <c r="E9" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="F9" t="s">
+        <v>24</v>
+      </c>
+      <c r="G9" s="2"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>2007</v>
+      </c>
+      <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
+        <v>39</v>
+      </c>
+      <c r="D10" t="s">
+        <v>40</v>
+      </c>
+      <c r="E10" t="s">
+        <v>37</v>
+      </c>
+      <c r="F10" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>2007</v>
+      </c>
+      <c r="B11" t="s">
+        <v>42</v>
+      </c>
+      <c r="C11" t="s">
+        <v>43</v>
+      </c>
+      <c r="D11" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" t="s">
+        <v>41</v>
+      </c>
+      <c r="F11" t="s">
         <v>14</v>
       </c>
-      <c r="G9" s="2" t="s">
-        <v>25</v>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>2007</v>
+      </c>
+      <c r="B12" t="s">
+        <v>66</v>
+      </c>
+      <c r="C12" t="s">
+        <v>67</v>
+      </c>
+      <c r="D12" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" t="s">
+        <v>65</v>
+      </c>
+      <c r="F12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>2010</v>
+      </c>
+      <c r="B13" t="s">
+        <v>68</v>
+      </c>
+      <c r="C13" t="s">
+        <v>69</v>
+      </c>
+      <c r="D13" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" t="s">
+        <v>70</v>
+      </c>
+      <c r="F13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>2010</v>
+      </c>
+      <c r="B14" t="s">
+        <v>71</v>
+      </c>
+      <c r="C14" t="s">
+        <v>72</v>
+      </c>
+      <c r="D14" t="s">
+        <v>40</v>
+      </c>
+      <c r="E14" t="s">
+        <v>73</v>
+      </c>
+      <c r="F14" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>2010</v>
+      </c>
+      <c r="B15" t="s">
+        <v>74</v>
+      </c>
+      <c r="C15" t="s">
+        <v>75</v>
+      </c>
+      <c r="D15" t="s">
+        <v>40</v>
+      </c>
+      <c r="E15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>2011</v>
+      </c>
+      <c r="B16" t="s">
+        <v>44</v>
+      </c>
+      <c r="C16" t="s">
+        <v>46</v>
+      </c>
+      <c r="D16" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" t="s">
+        <v>45</v>
+      </c>
+      <c r="F16" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>2012</v>
+      </c>
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" t="s">
+        <v>49</v>
+      </c>
+      <c r="D17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" t="s">
+        <v>47</v>
+      </c>
+      <c r="F17" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>2013</v>
+      </c>
+      <c r="B18" t="s">
+        <v>50</v>
+      </c>
+      <c r="C18" t="s">
+        <v>51</v>
+      </c>
+      <c r="D18" t="s">
+        <v>40</v>
+      </c>
+      <c r="E18" t="s">
+        <v>52</v>
+      </c>
+      <c r="F18" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>2013</v>
+      </c>
+      <c r="B19" t="s">
+        <v>77</v>
+      </c>
+      <c r="C19" t="s">
+        <v>78</v>
+      </c>
+      <c r="D19" t="s">
+        <v>40</v>
+      </c>
+      <c r="E19" t="s">
+        <v>79</v>
+      </c>
+      <c r="F19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>2014</v>
+      </c>
+      <c r="B20" t="s">
+        <v>53</v>
+      </c>
+      <c r="C20" t="s">
+        <v>55</v>
+      </c>
+      <c r="D20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E20" t="s">
+        <v>54</v>
+      </c>
+      <c r="F20" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>2014</v>
+      </c>
+      <c r="B21" t="s">
+        <v>80</v>
+      </c>
+      <c r="C21" t="s">
+        <v>81</v>
+      </c>
+      <c r="D21" t="s">
+        <v>40</v>
+      </c>
+      <c r="E21" t="s">
+        <v>82</v>
+      </c>
+      <c r="F21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>2015</v>
+      </c>
+      <c r="B22" t="s">
+        <v>57</v>
+      </c>
+      <c r="C22" t="s">
+        <v>58</v>
+      </c>
+      <c r="D22" t="s">
+        <v>40</v>
+      </c>
+      <c r="E22" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>2018</v>
+      </c>
+      <c r="B23" t="s">
+        <v>60</v>
+      </c>
+      <c r="C23" t="s">
+        <v>61</v>
+      </c>
+      <c r="D23" t="s">
+        <v>40</v>
+      </c>
+      <c r="E23" t="s">
+        <v>59</v>
+      </c>
+      <c r="F23" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>2019</v>
+      </c>
+      <c r="B24" t="s">
+        <v>62</v>
+      </c>
+      <c r="C24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" t="s">
+        <v>40</v>
+      </c>
+      <c r="E24" t="s">
+        <v>64</v>
+      </c>
+      <c r="F24" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G24">
+    <sortCondition ref="A2:A24"/>
+  </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/shadowrun/checklist.xlsx
+++ b/shadowrun/checklist.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/clark/Source/japanese-collectors-list/shadowrun/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99111396-9288-764B-88EC-5455B7A584B0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7EB10081-8363-C74D-9AC9-A4D6E0A50613}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="600" windowWidth="25480" windowHeight="15780" xr2:uid="{F23671B2-3995-1149-A37E-3115B4F9CB61}"/>
   </bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="133" uniqueCount="89">
   <si>
     <t>year</t>
   </si>
@@ -282,6 +282,24 @@
   </si>
   <si>
     <t>imperial_city.jpg</t>
+  </si>
+  <si>
+    <t>ラン&amp;ガン</t>
+  </si>
+  <si>
+    <t>Run &amp; Gun</t>
+  </si>
+  <si>
+    <t>run_and_gun.jpg</t>
+  </si>
+  <si>
+    <t>ファイアリング・ライン</t>
+  </si>
+  <si>
+    <t>Firing Line</t>
+  </si>
+  <si>
+    <t>firing_line.jpg</t>
   </si>
 </sst>
 </file>
@@ -643,10 +661,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{70CEB834-26A5-C348-B78D-2BD0AEBD14B9}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:G26"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="C15" sqref="A1:G24"/>
+      <selection activeCell="C17" sqref="A1:G26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1148,9 +1166,49 @@
         <v>19</v>
       </c>
     </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A25">
+        <v>2020</v>
+      </c>
+      <c r="B25" t="s">
+        <v>86</v>
+      </c>
+      <c r="C25" t="s">
+        <v>87</v>
+      </c>
+      <c r="D25" t="s">
+        <v>40</v>
+      </c>
+      <c r="E25" t="s">
+        <v>88</v>
+      </c>
+      <c r="F25" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A26">
+        <v>2021</v>
+      </c>
+      <c r="B26" t="s">
+        <v>83</v>
+      </c>
+      <c r="C26" t="s">
+        <v>84</v>
+      </c>
+      <c r="D26" t="s">
+        <v>40</v>
+      </c>
+      <c r="E26" t="s">
+        <v>85</v>
+      </c>
+      <c r="F26" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G24">
-    <sortCondition ref="A2:A24"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G26">
+    <sortCondition ref="A2:A26"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
